--- a/raw-data-prep/raw_data/Post-Questionnaire_AM.xlsx
+++ b/raw-data-prep/raw_data/Post-Questionnaire_AM.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhilgard\Documents\GitHub\vg-dissertation\raw-data-prep\raw_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19155" windowHeight="12330"/>
   </bookViews>
@@ -11,12 +16,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" calcMode="manual"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AM$61</definedName>
+  </definedNames>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="49">
   <si>
     <t>Subject</t>
   </si>
@@ -144,29 +152,32 @@
     <t>Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">5- Celtic </t>
-  </si>
-  <si>
-    <t>6 "Asian"</t>
-  </si>
-  <si>
-    <t>6 "Middle Eastern"</t>
-  </si>
-  <si>
-    <t>6 "Chinese"</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
     <t>1&amp;2</t>
   </si>
+  <si>
+    <t>race_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celtic </t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>Middle Eastern</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +233,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -269,7 +283,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -301,9 +315,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -335,6 +350,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -510,20 +526,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AM61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AJ57" sqref="AJ57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -633,13 +649,16 @@
         <v>35</v>
       </c>
       <c r="AK1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>19</v>
       </c>
@@ -748,14 +767,14 @@
       <c r="AJ2">
         <v>2</v>
       </c>
-      <c r="AK2">
-        <v>2</v>
-      </c>
       <c r="AL2">
+        <v>2</v>
+      </c>
+      <c r="AM2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>12</v>
       </c>
@@ -864,14 +883,14 @@
       <c r="AJ3">
         <v>5</v>
       </c>
-      <c r="AK3">
-        <v>2</v>
-      </c>
       <c r="AL3">
+        <v>2</v>
+      </c>
+      <c r="AM3">
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>17</v>
       </c>
@@ -980,14 +999,15 @@
       <c r="AJ4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AK4">
-        <v>1</v>
-      </c>
+      <c r="AK4" s="1"/>
       <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
         <v>3.6</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>21</v>
       </c>
@@ -1096,14 +1116,14 @@
       <c r="AJ5">
         <v>5</v>
       </c>
-      <c r="AK5">
-        <v>1</v>
-      </c>
       <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>16</v>
       </c>
@@ -1212,14 +1232,14 @@
       <c r="AJ6">
         <v>5</v>
       </c>
-      <c r="AK6">
-        <v>1</v>
-      </c>
       <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
         <v>3.3</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>15</v>
       </c>
@@ -1328,14 +1348,14 @@
       <c r="AJ7">
         <v>5</v>
       </c>
-      <c r="AK7">
-        <v>1</v>
-      </c>
       <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
         <v>3.9</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1441,17 +1461,20 @@
       <c r="AI8">
         <v>18</v>
       </c>
-      <c r="AJ8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK8">
-        <v>1</v>
+      <c r="AJ8" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
         <v>3.69</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11</v>
       </c>
@@ -1560,14 +1583,14 @@
       <c r="AJ9">
         <v>5</v>
       </c>
-      <c r="AK9">
-        <v>2</v>
-      </c>
       <c r="AL9">
+        <v>2</v>
+      </c>
+      <c r="AM9">
         <v>2.9</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1676,14 +1699,14 @@
       <c r="AJ10">
         <v>2</v>
       </c>
-      <c r="AK10">
-        <v>1</v>
-      </c>
       <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
         <v>3.3</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -1792,14 +1815,14 @@
       <c r="AJ11">
         <v>5</v>
       </c>
-      <c r="AK11">
-        <v>1</v>
-      </c>
       <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
         <v>3.3</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
@@ -1908,14 +1931,14 @@
       <c r="AJ12">
         <v>5</v>
       </c>
-      <c r="AK12">
-        <v>3</v>
-      </c>
       <c r="AL12">
+        <v>3</v>
+      </c>
+      <c r="AM12">
         <v>3.3</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -2024,14 +2047,14 @@
       <c r="AJ13">
         <v>5</v>
       </c>
-      <c r="AK13">
-        <v>1</v>
-      </c>
       <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
         <v>3.3</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2140,14 +2163,14 @@
       <c r="AJ14">
         <v>2</v>
       </c>
-      <c r="AK14">
-        <v>2</v>
-      </c>
       <c r="AL14">
+        <v>2</v>
+      </c>
+      <c r="AM14">
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2256,14 +2279,14 @@
       <c r="AJ15">
         <v>5</v>
       </c>
-      <c r="AK15">
-        <v>2</v>
-      </c>
       <c r="AL15">
+        <v>2</v>
+      </c>
+      <c r="AM15">
         <v>3.9</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7</v>
       </c>
@@ -2372,14 +2395,14 @@
       <c r="AJ16">
         <v>5</v>
       </c>
-      <c r="AK16">
-        <v>1</v>
-      </c>
       <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
         <v>3.7</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8</v>
       </c>
@@ -2488,14 +2511,14 @@
       <c r="AJ17">
         <v>3</v>
       </c>
-      <c r="AK17">
-        <v>2</v>
-      </c>
       <c r="AL17">
+        <v>2</v>
+      </c>
+      <c r="AM17">
         <v>3.91</v>
       </c>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10</v>
       </c>
@@ -2601,17 +2624,20 @@
       <c r="AI18">
         <v>18</v>
       </c>
-      <c r="AJ18" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK18">
-        <v>1</v>
+      <c r="AJ18">
+        <v>6</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>46</v>
       </c>
       <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
         <v>3.83</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="16.5" customHeight="1">
+    <row r="19" spans="1:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>14</v>
       </c>
@@ -2717,17 +2743,20 @@
       <c r="AI19">
         <v>22</v>
       </c>
-      <c r="AJ19" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK19">
-        <v>4</v>
+      <c r="AJ19">
+        <v>6</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>47</v>
       </c>
       <c r="AL19">
+        <v>4</v>
+      </c>
+      <c r="AM19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>13</v>
       </c>
@@ -2833,17 +2862,20 @@
       <c r="AI20">
         <v>19</v>
       </c>
-      <c r="AJ20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK20">
-        <v>2</v>
+      <c r="AJ20">
+        <v>6</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>48</v>
       </c>
       <c r="AL20">
+        <v>2</v>
+      </c>
+      <c r="AM20">
         <v>3.7</v>
       </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -2952,14 +2984,14 @@
       <c r="AJ21">
         <v>5</v>
       </c>
-      <c r="AK21">
-        <v>2</v>
-      </c>
       <c r="AL21">
+        <v>2</v>
+      </c>
+      <c r="AM21">
         <v>3.2</v>
       </c>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3068,14 +3100,14 @@
       <c r="AJ22">
         <v>5</v>
       </c>
-      <c r="AK22">
-        <v>1</v>
-      </c>
       <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
         <v>3.7</v>
       </c>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3184,14 +3216,14 @@
       <c r="AJ23">
         <v>5</v>
       </c>
-      <c r="AK23">
-        <v>1</v>
-      </c>
       <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
         <v>3.8</v>
       </c>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3300,14 +3332,14 @@
       <c r="AJ24">
         <v>5</v>
       </c>
-      <c r="AK24">
-        <v>1</v>
-      </c>
       <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
         <v>3.85</v>
       </c>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3416,14 +3448,14 @@
       <c r="AJ25">
         <v>2</v>
       </c>
-      <c r="AK25">
-        <v>1</v>
-      </c>
       <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
         <v>3.8</v>
       </c>
     </row>
-    <row r="26" spans="1:38">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3532,14 +3564,14 @@
       <c r="AJ26">
         <v>5</v>
       </c>
-      <c r="AK26">
-        <v>1</v>
-      </c>
       <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
         <v>3.4</v>
       </c>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3648,14 +3680,14 @@
       <c r="AJ27">
         <v>5</v>
       </c>
-      <c r="AK27">
-        <v>1</v>
-      </c>
       <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:38">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3764,14 +3796,14 @@
       <c r="AJ28">
         <v>5</v>
       </c>
-      <c r="AK28">
-        <v>2</v>
-      </c>
       <c r="AL28">
+        <v>2</v>
+      </c>
+      <c r="AM28">
         <v>2.9</v>
       </c>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3854,22 +3886,22 @@
         <v>5</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AC29" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AD29" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AE29" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AF29" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AG29" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AH29" t="s">
         <v>39</v>
@@ -3880,14 +3912,14 @@
       <c r="AJ29">
         <v>5</v>
       </c>
-      <c r="AK29">
-        <v>1</v>
-      </c>
       <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29">
         <v>3.8</v>
       </c>
     </row>
-    <row r="30" spans="1:38">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>31</v>
       </c>
@@ -3996,14 +4028,14 @@
       <c r="AJ30">
         <v>5</v>
       </c>
-      <c r="AK30">
-        <v>1</v>
-      </c>
       <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AM30">
         <v>3.7</v>
       </c>
     </row>
-    <row r="31" spans="1:38">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4112,14 +4144,14 @@
       <c r="AJ31">
         <v>5</v>
       </c>
-      <c r="AK31">
-        <v>1</v>
-      </c>
       <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:38">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4228,14 +4260,14 @@
       <c r="AJ32">
         <v>5</v>
       </c>
-      <c r="AK32">
-        <v>4</v>
-      </c>
       <c r="AL32">
+        <v>4</v>
+      </c>
+      <c r="AM32">
         <v>3.2</v>
       </c>
     </row>
-    <row r="33" spans="1:38">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4344,14 +4376,14 @@
       <c r="AJ33">
         <v>5</v>
       </c>
-      <c r="AK33">
-        <v>1</v>
-      </c>
       <c r="AL33">
+        <v>1</v>
+      </c>
+      <c r="AM33">
         <v>3.6</v>
       </c>
     </row>
-    <row r="34" spans="1:38">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>34</v>
       </c>
@@ -4460,14 +4492,14 @@
       <c r="AJ34">
         <v>5</v>
       </c>
-      <c r="AK34">
-        <v>1</v>
-      </c>
       <c r="AL34">
+        <v>1</v>
+      </c>
+      <c r="AM34">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:38">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -4576,14 +4608,14 @@
       <c r="AJ35">
         <v>5</v>
       </c>
-      <c r="AK35">
-        <v>1</v>
-      </c>
       <c r="AL35">
+        <v>1</v>
+      </c>
+      <c r="AM35">
         <v>3.8</v>
       </c>
     </row>
-    <row r="36" spans="1:38">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>36</v>
       </c>
@@ -4692,14 +4724,14 @@
       <c r="AJ36">
         <v>3</v>
       </c>
-      <c r="AK36">
-        <v>1</v>
-      </c>
       <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36">
         <v>2.8</v>
       </c>
     </row>
-    <row r="37" spans="1:38">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -4808,14 +4840,14 @@
       <c r="AJ37">
         <v>5</v>
       </c>
-      <c r="AK37">
-        <v>1</v>
-      </c>
       <c r="AL37">
+        <v>1</v>
+      </c>
+      <c r="AM37">
         <v>3.8</v>
       </c>
     </row>
-    <row r="38" spans="1:38">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>38</v>
       </c>
@@ -4924,14 +4956,14 @@
       <c r="AJ38">
         <v>5</v>
       </c>
-      <c r="AK38">
-        <v>1</v>
-      </c>
       <c r="AL38">
+        <v>1</v>
+      </c>
+      <c r="AM38">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:38">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -5040,14 +5072,14 @@
       <c r="AJ39">
         <v>5</v>
       </c>
-      <c r="AK39">
-        <v>2</v>
-      </c>
       <c r="AL39">
+        <v>2</v>
+      </c>
+      <c r="AM39">
         <v>3.5</v>
       </c>
     </row>
-    <row r="40" spans="1:38">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>40</v>
       </c>
@@ -5156,14 +5188,14 @@
       <c r="AJ40">
         <v>5</v>
       </c>
-      <c r="AK40">
-        <v>2</v>
-      </c>
       <c r="AL40">
+        <v>2</v>
+      </c>
+      <c r="AM40">
         <v>3.3</v>
       </c>
     </row>
-    <row r="41" spans="1:38">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -5272,14 +5304,14 @@
       <c r="AJ41">
         <v>1</v>
       </c>
-      <c r="AK41">
-        <v>1</v>
-      </c>
       <c r="AL41">
+        <v>1</v>
+      </c>
+      <c r="AM41">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:38">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5388,14 +5420,14 @@
       <c r="AJ42">
         <v>1</v>
       </c>
-      <c r="AK42">
-        <v>1</v>
-      </c>
       <c r="AL42">
+        <v>1</v>
+      </c>
+      <c r="AM42">
         <v>3.89</v>
       </c>
     </row>
-    <row r="43" spans="1:38">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5502,16 +5534,17 @@
         <v>18</v>
       </c>
       <c r="AJ43" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK43">
-        <v>1</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AK43" s="1"/>
       <c r="AL43">
+        <v>1</v>
+      </c>
+      <c r="AM43">
         <v>3.5</v>
       </c>
     </row>
-    <row r="44" spans="1:38">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>133</v>
       </c>
@@ -5620,14 +5653,14 @@
       <c r="AJ44">
         <v>5</v>
       </c>
-      <c r="AK44">
-        <v>1</v>
-      </c>
       <c r="AL44">
+        <v>1</v>
+      </c>
+      <c r="AM44">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:38">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>124</v>
       </c>
@@ -5736,14 +5769,14 @@
       <c r="AJ45">
         <v>2</v>
       </c>
-      <c r="AK45">
-        <v>2</v>
-      </c>
       <c r="AL45">
+        <v>2</v>
+      </c>
+      <c r="AM45">
         <v>2.5</v>
       </c>
     </row>
-    <row r="46" spans="1:38">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>125</v>
       </c>
@@ -5852,14 +5885,14 @@
       <c r="AJ46">
         <v>2</v>
       </c>
-      <c r="AK46">
-        <v>1</v>
-      </c>
       <c r="AL46">
+        <v>1</v>
+      </c>
+      <c r="AM46">
         <v>3.2</v>
       </c>
     </row>
-    <row r="47" spans="1:38">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>127</v>
       </c>
@@ -5968,14 +6001,14 @@
       <c r="AJ47">
         <v>5</v>
       </c>
-      <c r="AK47">
-        <v>3</v>
-      </c>
       <c r="AL47">
+        <v>3</v>
+      </c>
+      <c r="AM47">
         <v>3.2</v>
       </c>
     </row>
-    <row r="48" spans="1:38">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>126</v>
       </c>
@@ -6084,14 +6117,14 @@
       <c r="AJ48">
         <v>2</v>
       </c>
-      <c r="AK48">
-        <v>2</v>
-      </c>
       <c r="AL48">
+        <v>2</v>
+      </c>
+      <c r="AM48">
         <v>3.3</v>
       </c>
     </row>
-    <row r="49" spans="1:38">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>128</v>
       </c>
@@ -6200,14 +6233,14 @@
       <c r="AJ49">
         <v>5</v>
       </c>
-      <c r="AK49">
-        <v>1</v>
-      </c>
       <c r="AL49">
+        <v>1</v>
+      </c>
+      <c r="AM49">
         <v>3.6</v>
       </c>
     </row>
-    <row r="50" spans="1:38">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>129</v>
       </c>
@@ -6316,14 +6349,14 @@
       <c r="AJ50">
         <v>5</v>
       </c>
-      <c r="AK50">
-        <v>2</v>
-      </c>
       <c r="AL50">
+        <v>2</v>
+      </c>
+      <c r="AM50">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:38">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>130</v>
       </c>
@@ -6432,14 +6465,14 @@
       <c r="AJ51">
         <v>5</v>
       </c>
-      <c r="AK51">
-        <v>1</v>
-      </c>
       <c r="AL51">
+        <v>1</v>
+      </c>
+      <c r="AM51">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:38">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>131</v>
       </c>
@@ -6548,14 +6581,14 @@
       <c r="AJ52">
         <v>5</v>
       </c>
-      <c r="AK52">
-        <v>1</v>
-      </c>
       <c r="AL52">
+        <v>1</v>
+      </c>
+      <c r="AM52">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:38">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>132</v>
       </c>
@@ -6664,14 +6697,14 @@
       <c r="AJ53">
         <v>5</v>
       </c>
-      <c r="AK53">
-        <v>1</v>
-      </c>
       <c r="AL53">
+        <v>1</v>
+      </c>
+      <c r="AM53">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:38">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>134</v>
       </c>
@@ -6780,14 +6813,14 @@
       <c r="AJ54">
         <v>5</v>
       </c>
-      <c r="AK54">
-        <v>2</v>
-      </c>
       <c r="AL54">
+        <v>2</v>
+      </c>
+      <c r="AM54">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:38">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>135</v>
       </c>
@@ -6896,14 +6929,14 @@
       <c r="AJ55">
         <v>2</v>
       </c>
-      <c r="AK55">
-        <v>1</v>
-      </c>
       <c r="AL55">
+        <v>1</v>
+      </c>
+      <c r="AM55">
         <v>3.8</v>
       </c>
     </row>
-    <row r="56" spans="1:38">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>137</v>
       </c>
@@ -7012,14 +7045,14 @@
       <c r="AJ56">
         <v>5</v>
       </c>
-      <c r="AK56">
-        <v>1</v>
-      </c>
       <c r="AL56">
+        <v>1</v>
+      </c>
+      <c r="AM56">
         <v>3.97</v>
       </c>
     </row>
-    <row r="57" spans="1:38">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>136</v>
       </c>
@@ -7128,14 +7161,14 @@
       <c r="AJ57">
         <v>5</v>
       </c>
-      <c r="AK57">
-        <v>2</v>
-      </c>
       <c r="AL57">
+        <v>2</v>
+      </c>
+      <c r="AM57">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:38">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>138</v>
       </c>
@@ -7244,14 +7277,14 @@
       <c r="AJ58">
         <v>5</v>
       </c>
-      <c r="AK58">
-        <v>4</v>
-      </c>
       <c r="AL58">
+        <v>4</v>
+      </c>
+      <c r="AM58">
         <v>2.75</v>
       </c>
     </row>
-    <row r="59" spans="1:38">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>140</v>
       </c>
@@ -7360,14 +7393,14 @@
       <c r="AJ59">
         <v>5</v>
       </c>
-      <c r="AK59">
-        <v>2</v>
-      </c>
       <c r="AL59">
+        <v>2</v>
+      </c>
+      <c r="AM59">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:38">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>139</v>
       </c>
@@ -7450,40 +7483,41 @@
         <v>7</v>
       </c>
       <c r="AB60" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AC60" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AD60" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AE60" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AF60" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AG60" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AH60" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="AI60" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AJ60" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK60" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AK60" s="1"/>
       <c r="AL60" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="AM60" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:38">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>141</v>
       </c>
@@ -7592,38 +7626,39 @@
       <c r="AJ61">
         <v>5</v>
       </c>
-      <c r="AK61">
-        <v>1</v>
-      </c>
       <c r="AL61">
+        <v>1</v>
+      </c>
+      <c r="AM61">
         <v>3.7</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AM61"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/raw-data-prep/raw_data/Post-Questionnaire_AM.xlsx
+++ b/raw-data-prep/raw_data/Post-Questionnaire_AM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19155" windowHeight="12330"/>
@@ -11,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" calcMode="manual"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AN$61</definedName>
+  </definedNames>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="47">
   <si>
     <t>Subject</t>
   </si>
@@ -138,35 +141,32 @@
     <t>M</t>
   </si>
   <si>
-    <t>5&amp;2</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">5- Celtic </t>
+    <t>race_t</t>
   </si>
   <si>
-    <t>6 "Asian"</t>
+    <t>Celtic</t>
   </si>
   <si>
-    <t>6 "Middle Eastern"</t>
+    <t>Asian</t>
   </si>
   <si>
-    <t>6 "Chinese"</t>
+    <t>Middle Eastern</t>
   </si>
   <si>
-    <t>.</t>
+    <t>Chinese</t>
   </si>
   <si>
-    <t>1&amp;2</t>
+    <t>race2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,6 +301,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -335,6 +336,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -510,20 +512,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AN61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="AJ44" sqref="AJ44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -633,13 +635,19 @@
         <v>35</v>
       </c>
       <c r="AK1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>19</v>
       </c>
@@ -748,14 +756,14 @@
       <c r="AJ2">
         <v>2</v>
       </c>
-      <c r="AK2">
-        <v>2</v>
-      </c>
-      <c r="AL2">
+      <c r="AM2">
+        <v>2</v>
+      </c>
+      <c r="AN2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>12</v>
       </c>
@@ -864,14 +872,14 @@
       <c r="AJ3">
         <v>5</v>
       </c>
-      <c r="AK3">
-        <v>2</v>
-      </c>
-      <c r="AL3">
+      <c r="AM3">
+        <v>2</v>
+      </c>
+      <c r="AN3">
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>17</v>
       </c>
@@ -977,17 +985,21 @@
       <c r="AI4">
         <v>18</v>
       </c>
-      <c r="AJ4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK4">
-        <v>1</v>
-      </c>
-      <c r="AL4">
+      <c r="AJ4" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL4" s="1"/>
+      <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
         <v>3.6</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>21</v>
       </c>
@@ -1010,7 +1022,7 @@
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s">
         <v>38</v>
@@ -1096,14 +1108,14 @@
       <c r="AJ5">
         <v>5</v>
       </c>
-      <c r="AK5">
-        <v>1</v>
-      </c>
-      <c r="AL5">
+      <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>16</v>
       </c>
@@ -1126,10 +1138,10 @@
         <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J6">
         <v>6</v>
@@ -1212,14 +1224,14 @@
       <c r="AJ6">
         <v>5</v>
       </c>
-      <c r="AK6">
-        <v>1</v>
-      </c>
-      <c r="AL6">
+      <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
         <v>3.3</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>15</v>
       </c>
@@ -1242,10 +1254,10 @@
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J7">
         <v>7</v>
@@ -1328,14 +1340,14 @@
       <c r="AJ7">
         <v>5</v>
       </c>
-      <c r="AK7">
-        <v>1</v>
-      </c>
-      <c r="AL7">
+      <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7">
         <v>3.9</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1441,17 +1453,21 @@
       <c r="AI8">
         <v>18</v>
       </c>
-      <c r="AJ8" s="1" t="s">
+      <c r="AJ8" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AK8">
-        <v>1</v>
-      </c>
-      <c r="AL8">
+      <c r="AM8">
+        <v>1</v>
+      </c>
+      <c r="AN8">
         <v>3.69</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11</v>
       </c>
@@ -1560,14 +1576,14 @@
       <c r="AJ9">
         <v>5</v>
       </c>
-      <c r="AK9">
-        <v>2</v>
-      </c>
-      <c r="AL9">
+      <c r="AM9">
+        <v>2</v>
+      </c>
+      <c r="AN9">
         <v>2.9</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1676,14 +1692,14 @@
       <c r="AJ10">
         <v>2</v>
       </c>
-      <c r="AK10">
-        <v>1</v>
-      </c>
-      <c r="AL10">
+      <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AN10">
         <v>3.3</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -1792,14 +1808,14 @@
       <c r="AJ11">
         <v>5</v>
       </c>
-      <c r="AK11">
-        <v>1</v>
-      </c>
-      <c r="AL11">
+      <c r="AM11">
+        <v>1</v>
+      </c>
+      <c r="AN11">
         <v>3.3</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
@@ -1908,14 +1924,14 @@
       <c r="AJ12">
         <v>5</v>
       </c>
-      <c r="AK12">
-        <v>3</v>
-      </c>
-      <c r="AL12">
+      <c r="AM12">
+        <v>3</v>
+      </c>
+      <c r="AN12">
         <v>3.3</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -2024,14 +2040,14 @@
       <c r="AJ13">
         <v>5</v>
       </c>
-      <c r="AK13">
-        <v>1</v>
-      </c>
-      <c r="AL13">
+      <c r="AM13">
+        <v>1</v>
+      </c>
+      <c r="AN13">
         <v>3.3</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2140,14 +2156,14 @@
       <c r="AJ14">
         <v>2</v>
       </c>
-      <c r="AK14">
-        <v>2</v>
-      </c>
-      <c r="AL14">
+      <c r="AM14">
+        <v>2</v>
+      </c>
+      <c r="AN14">
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2170,7 +2186,7 @@
         <v>5</v>
       </c>
       <c r="H15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I15" t="s">
         <v>38</v>
@@ -2256,14 +2272,14 @@
       <c r="AJ15">
         <v>5</v>
       </c>
-      <c r="AK15">
-        <v>2</v>
-      </c>
-      <c r="AL15">
+      <c r="AM15">
+        <v>2</v>
+      </c>
+      <c r="AN15">
         <v>3.9</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7</v>
       </c>
@@ -2372,14 +2388,14 @@
       <c r="AJ16">
         <v>5</v>
       </c>
-      <c r="AK16">
-        <v>1</v>
-      </c>
-      <c r="AL16">
+      <c r="AM16">
+        <v>1</v>
+      </c>
+      <c r="AN16">
         <v>3.7</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8</v>
       </c>
@@ -2402,7 +2418,7 @@
         <v>4</v>
       </c>
       <c r="H17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I17" t="s">
         <v>38</v>
@@ -2488,14 +2504,14 @@
       <c r="AJ17">
         <v>3</v>
       </c>
-      <c r="AK17">
-        <v>2</v>
-      </c>
-      <c r="AL17">
+      <c r="AM17">
+        <v>2</v>
+      </c>
+      <c r="AN17">
         <v>3.91</v>
       </c>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10</v>
       </c>
@@ -2601,17 +2617,20 @@
       <c r="AI18">
         <v>18</v>
       </c>
-      <c r="AJ18" t="s">
+      <c r="AJ18">
+        <v>6</v>
+      </c>
+      <c r="AL18" t="s">
         <v>43</v>
       </c>
-      <c r="AK18">
-        <v>1</v>
-      </c>
-      <c r="AL18">
+      <c r="AM18">
+        <v>1</v>
+      </c>
+      <c r="AN18">
         <v>3.83</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="16.5" customHeight="1">
+    <row r="19" spans="1:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>14</v>
       </c>
@@ -2717,17 +2736,20 @@
       <c r="AI19">
         <v>22</v>
       </c>
-      <c r="AJ19" t="s">
+      <c r="AJ19">
+        <v>6</v>
+      </c>
+      <c r="AL19" t="s">
         <v>44</v>
       </c>
-      <c r="AK19">
-        <v>4</v>
-      </c>
-      <c r="AL19">
+      <c r="AM19">
+        <v>4</v>
+      </c>
+      <c r="AN19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>13</v>
       </c>
@@ -2750,10 +2772,10 @@
         <v>4</v>
       </c>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J20">
         <v>6</v>
@@ -2833,17 +2855,20 @@
       <c r="AI20">
         <v>19</v>
       </c>
-      <c r="AJ20" t="s">
+      <c r="AJ20">
+        <v>6</v>
+      </c>
+      <c r="AL20" t="s">
         <v>45</v>
       </c>
-      <c r="AK20">
-        <v>2</v>
-      </c>
-      <c r="AL20">
+      <c r="AM20">
+        <v>2</v>
+      </c>
+      <c r="AN20">
         <v>3.7</v>
       </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -2952,14 +2977,14 @@
       <c r="AJ21">
         <v>5</v>
       </c>
-      <c r="AK21">
-        <v>2</v>
-      </c>
-      <c r="AL21">
+      <c r="AM21">
+        <v>2</v>
+      </c>
+      <c r="AN21">
         <v>3.2</v>
       </c>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3068,14 +3093,14 @@
       <c r="AJ22">
         <v>5</v>
       </c>
-      <c r="AK22">
-        <v>1</v>
-      </c>
-      <c r="AL22">
+      <c r="AM22">
+        <v>1</v>
+      </c>
+      <c r="AN22">
         <v>3.7</v>
       </c>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3184,14 +3209,14 @@
       <c r="AJ23">
         <v>5</v>
       </c>
-      <c r="AK23">
-        <v>1</v>
-      </c>
-      <c r="AL23">
+      <c r="AM23">
+        <v>1</v>
+      </c>
+      <c r="AN23">
         <v>3.8</v>
       </c>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3255,9 +3280,6 @@
       <c r="U24">
         <v>1</v>
       </c>
-      <c r="V24">
-        <v>12</v>
-      </c>
       <c r="W24">
         <v>2</v>
       </c>
@@ -3300,14 +3322,14 @@
       <c r="AJ24">
         <v>5</v>
       </c>
-      <c r="AK24">
-        <v>1</v>
-      </c>
-      <c r="AL24">
+      <c r="AM24">
+        <v>1</v>
+      </c>
+      <c r="AN24">
         <v>3.85</v>
       </c>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3416,14 +3438,14 @@
       <c r="AJ25">
         <v>2</v>
       </c>
-      <c r="AK25">
-        <v>1</v>
-      </c>
-      <c r="AL25">
+      <c r="AM25">
+        <v>1</v>
+      </c>
+      <c r="AN25">
         <v>3.8</v>
       </c>
     </row>
-    <row r="26" spans="1:38">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3532,14 +3554,14 @@
       <c r="AJ26">
         <v>5</v>
       </c>
-      <c r="AK26">
-        <v>1</v>
-      </c>
-      <c r="AL26">
+      <c r="AM26">
+        <v>1</v>
+      </c>
+      <c r="AN26">
         <v>3.4</v>
       </c>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3648,14 +3670,14 @@
       <c r="AJ27">
         <v>5</v>
       </c>
-      <c r="AK27">
-        <v>1</v>
-      </c>
-      <c r="AL27">
+      <c r="AM27">
+        <v>1</v>
+      </c>
+      <c r="AN27">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:38">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3764,14 +3786,14 @@
       <c r="AJ28">
         <v>5</v>
       </c>
-      <c r="AK28">
-        <v>2</v>
-      </c>
-      <c r="AL28">
+      <c r="AM28">
+        <v>2</v>
+      </c>
+      <c r="AN28">
         <v>2.9</v>
       </c>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3853,24 +3875,12 @@
       <c r="AA29">
         <v>5</v>
       </c>
-      <c r="AB29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG29" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
       <c r="AH29" t="s">
         <v>39</v>
       </c>
@@ -3880,14 +3890,14 @@
       <c r="AJ29">
         <v>5</v>
       </c>
-      <c r="AK29">
-        <v>1</v>
-      </c>
-      <c r="AL29">
+      <c r="AM29">
+        <v>1</v>
+      </c>
+      <c r="AN29">
         <v>3.8</v>
       </c>
     </row>
-    <row r="30" spans="1:38">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>31</v>
       </c>
@@ -3996,14 +4006,14 @@
       <c r="AJ30">
         <v>5</v>
       </c>
-      <c r="AK30">
-        <v>1</v>
-      </c>
-      <c r="AL30">
+      <c r="AM30">
+        <v>1</v>
+      </c>
+      <c r="AN30">
         <v>3.7</v>
       </c>
     </row>
-    <row r="31" spans="1:38">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4112,14 +4122,14 @@
       <c r="AJ31">
         <v>5</v>
       </c>
-      <c r="AK31">
-        <v>1</v>
-      </c>
-      <c r="AL31">
+      <c r="AM31">
+        <v>1</v>
+      </c>
+      <c r="AN31">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:38">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4228,14 +4238,14 @@
       <c r="AJ32">
         <v>5</v>
       </c>
-      <c r="AK32">
-        <v>4</v>
-      </c>
-      <c r="AL32">
+      <c r="AM32">
+        <v>4</v>
+      </c>
+      <c r="AN32">
         <v>3.2</v>
       </c>
     </row>
-    <row r="33" spans="1:38">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4344,14 +4354,14 @@
       <c r="AJ33">
         <v>5</v>
       </c>
-      <c r="AK33">
-        <v>1</v>
-      </c>
-      <c r="AL33">
+      <c r="AM33">
+        <v>1</v>
+      </c>
+      <c r="AN33">
         <v>3.6</v>
       </c>
     </row>
-    <row r="34" spans="1:38">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>34</v>
       </c>
@@ -4460,14 +4470,14 @@
       <c r="AJ34">
         <v>5</v>
       </c>
-      <c r="AK34">
-        <v>1</v>
-      </c>
-      <c r="AL34">
+      <c r="AM34">
+        <v>1</v>
+      </c>
+      <c r="AN34">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:38">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -4576,14 +4586,14 @@
       <c r="AJ35">
         <v>5</v>
       </c>
-      <c r="AK35">
-        <v>1</v>
-      </c>
-      <c r="AL35">
+      <c r="AM35">
+        <v>1</v>
+      </c>
+      <c r="AN35">
         <v>3.8</v>
       </c>
     </row>
-    <row r="36" spans="1:38">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>36</v>
       </c>
@@ -4692,14 +4702,14 @@
       <c r="AJ36">
         <v>3</v>
       </c>
-      <c r="AK36">
-        <v>1</v>
-      </c>
-      <c r="AL36">
+      <c r="AM36">
+        <v>1</v>
+      </c>
+      <c r="AN36">
         <v>2.8</v>
       </c>
     </row>
-    <row r="37" spans="1:38">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -4808,14 +4818,14 @@
       <c r="AJ37">
         <v>5</v>
       </c>
-      <c r="AK37">
-        <v>1</v>
-      </c>
-      <c r="AL37">
+      <c r="AM37">
+        <v>1</v>
+      </c>
+      <c r="AN37">
         <v>3.8</v>
       </c>
     </row>
-    <row r="38" spans="1:38">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>38</v>
       </c>
@@ -4924,14 +4934,14 @@
       <c r="AJ38">
         <v>5</v>
       </c>
-      <c r="AK38">
-        <v>1</v>
-      </c>
-      <c r="AL38">
+      <c r="AM38">
+        <v>1</v>
+      </c>
+      <c r="AN38">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:38">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -5040,14 +5050,14 @@
       <c r="AJ39">
         <v>5</v>
       </c>
-      <c r="AK39">
-        <v>2</v>
-      </c>
-      <c r="AL39">
+      <c r="AM39">
+        <v>2</v>
+      </c>
+      <c r="AN39">
         <v>3.5</v>
       </c>
     </row>
-    <row r="40" spans="1:38">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>40</v>
       </c>
@@ -5156,14 +5166,14 @@
       <c r="AJ40">
         <v>5</v>
       </c>
-      <c r="AK40">
-        <v>2</v>
-      </c>
-      <c r="AL40">
+      <c r="AM40">
+        <v>2</v>
+      </c>
+      <c r="AN40">
         <v>3.3</v>
       </c>
     </row>
-    <row r="41" spans="1:38">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -5272,14 +5282,14 @@
       <c r="AJ41">
         <v>1</v>
       </c>
-      <c r="AK41">
-        <v>1</v>
-      </c>
-      <c r="AL41">
+      <c r="AM41">
+        <v>1</v>
+      </c>
+      <c r="AN41">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:38">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5302,10 +5312,10 @@
         <v>7</v>
       </c>
       <c r="H42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J42">
         <v>7</v>
@@ -5388,14 +5398,14 @@
       <c r="AJ42">
         <v>1</v>
       </c>
-      <c r="AK42">
-        <v>1</v>
-      </c>
-      <c r="AL42">
+      <c r="AM42">
+        <v>1</v>
+      </c>
+      <c r="AN42">
         <v>3.89</v>
       </c>
     </row>
-    <row r="43" spans="1:38">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5418,10 +5428,10 @@
         <v>2</v>
       </c>
       <c r="H43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J43">
         <v>6</v>
@@ -5501,17 +5511,21 @@
       <c r="AI43">
         <v>18</v>
       </c>
-      <c r="AJ43" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK43">
-        <v>1</v>
-      </c>
-      <c r="AL43">
+      <c r="AJ43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK43" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL43" s="1"/>
+      <c r="AM43">
+        <v>1</v>
+      </c>
+      <c r="AN43">
         <v>3.5</v>
       </c>
     </row>
-    <row r="44" spans="1:38">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>133</v>
       </c>
@@ -5620,14 +5634,14 @@
       <c r="AJ44">
         <v>5</v>
       </c>
-      <c r="AK44">
-        <v>1</v>
-      </c>
-      <c r="AL44">
+      <c r="AM44">
+        <v>1</v>
+      </c>
+      <c r="AN44">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:38">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>124</v>
       </c>
@@ -5736,14 +5750,14 @@
       <c r="AJ45">
         <v>2</v>
       </c>
-      <c r="AK45">
-        <v>2</v>
-      </c>
-      <c r="AL45">
+      <c r="AM45">
+        <v>2</v>
+      </c>
+      <c r="AN45">
         <v>2.5</v>
       </c>
     </row>
-    <row r="46" spans="1:38">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>125</v>
       </c>
@@ -5852,14 +5866,14 @@
       <c r="AJ46">
         <v>2</v>
       </c>
-      <c r="AK46">
-        <v>1</v>
-      </c>
-      <c r="AL46">
+      <c r="AM46">
+        <v>1</v>
+      </c>
+      <c r="AN46">
         <v>3.2</v>
       </c>
     </row>
-    <row r="47" spans="1:38">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>127</v>
       </c>
@@ -5968,14 +5982,14 @@
       <c r="AJ47">
         <v>5</v>
       </c>
-      <c r="AK47">
-        <v>3</v>
-      </c>
-      <c r="AL47">
+      <c r="AM47">
+        <v>3</v>
+      </c>
+      <c r="AN47">
         <v>3.2</v>
       </c>
     </row>
-    <row r="48" spans="1:38">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>126</v>
       </c>
@@ -5998,7 +6012,7 @@
         <v>4</v>
       </c>
       <c r="H48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I48" t="s">
         <v>38</v>
@@ -6084,14 +6098,14 @@
       <c r="AJ48">
         <v>2</v>
       </c>
-      <c r="AK48">
-        <v>2</v>
-      </c>
-      <c r="AL48">
+      <c r="AM48">
+        <v>2</v>
+      </c>
+      <c r="AN48">
         <v>3.3</v>
       </c>
     </row>
-    <row r="49" spans="1:38">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>128</v>
       </c>
@@ -6200,14 +6214,14 @@
       <c r="AJ49">
         <v>5</v>
       </c>
-      <c r="AK49">
-        <v>1</v>
-      </c>
-      <c r="AL49">
+      <c r="AM49">
+        <v>1</v>
+      </c>
+      <c r="AN49">
         <v>3.6</v>
       </c>
     </row>
-    <row r="50" spans="1:38">
+    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>129</v>
       </c>
@@ -6316,14 +6330,14 @@
       <c r="AJ50">
         <v>5</v>
       </c>
-      <c r="AK50">
-        <v>2</v>
-      </c>
-      <c r="AL50">
+      <c r="AM50">
+        <v>2</v>
+      </c>
+      <c r="AN50">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:38">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>130</v>
       </c>
@@ -6432,14 +6446,14 @@
       <c r="AJ51">
         <v>5</v>
       </c>
-      <c r="AK51">
-        <v>1</v>
-      </c>
-      <c r="AL51">
+      <c r="AM51">
+        <v>1</v>
+      </c>
+      <c r="AN51">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:38">
+    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>131</v>
       </c>
@@ -6548,14 +6562,14 @@
       <c r="AJ52">
         <v>5</v>
       </c>
-      <c r="AK52">
-        <v>1</v>
-      </c>
-      <c r="AL52">
+      <c r="AM52">
+        <v>1</v>
+      </c>
+      <c r="AN52">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:38">
+    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>132</v>
       </c>
@@ -6664,14 +6678,14 @@
       <c r="AJ53">
         <v>5</v>
       </c>
-      <c r="AK53">
-        <v>1</v>
-      </c>
-      <c r="AL53">
+      <c r="AM53">
+        <v>1</v>
+      </c>
+      <c r="AN53">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:38">
+    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>134</v>
       </c>
@@ -6780,14 +6794,14 @@
       <c r="AJ54">
         <v>5</v>
       </c>
-      <c r="AK54">
-        <v>2</v>
-      </c>
-      <c r="AL54">
+      <c r="AM54">
+        <v>2</v>
+      </c>
+      <c r="AN54">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:38">
+    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>135</v>
       </c>
@@ -6896,14 +6910,14 @@
       <c r="AJ55">
         <v>2</v>
       </c>
-      <c r="AK55">
-        <v>1</v>
-      </c>
-      <c r="AL55">
+      <c r="AM55">
+        <v>1</v>
+      </c>
+      <c r="AN55">
         <v>3.8</v>
       </c>
     </row>
-    <row r="56" spans="1:38">
+    <row r="56" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>137</v>
       </c>
@@ -7012,14 +7026,14 @@
       <c r="AJ56">
         <v>5</v>
       </c>
-      <c r="AK56">
-        <v>1</v>
-      </c>
-      <c r="AL56">
+      <c r="AM56">
+        <v>1</v>
+      </c>
+      <c r="AN56">
         <v>3.97</v>
       </c>
     </row>
-    <row r="57" spans="1:38">
+    <row r="57" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>136</v>
       </c>
@@ -7128,14 +7142,14 @@
       <c r="AJ57">
         <v>5</v>
       </c>
-      <c r="AK57">
-        <v>2</v>
-      </c>
-      <c r="AL57">
+      <c r="AM57">
+        <v>2</v>
+      </c>
+      <c r="AN57">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:38">
+    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>138</v>
       </c>
@@ -7244,14 +7258,14 @@
       <c r="AJ58">
         <v>5</v>
       </c>
-      <c r="AK58">
-        <v>4</v>
-      </c>
-      <c r="AL58">
+      <c r="AM58">
+        <v>4</v>
+      </c>
+      <c r="AN58">
         <v>2.75</v>
       </c>
     </row>
-    <row r="59" spans="1:38">
+    <row r="59" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>140</v>
       </c>
@@ -7360,14 +7374,14 @@
       <c r="AJ59">
         <v>5</v>
       </c>
-      <c r="AK59">
-        <v>2</v>
-      </c>
-      <c r="AL59">
+      <c r="AM59">
+        <v>2</v>
+      </c>
+      <c r="AN59">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:38">
+    <row r="60" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>139</v>
       </c>
@@ -7449,41 +7463,21 @@
       <c r="AA60">
         <v>7</v>
       </c>
-      <c r="AB60" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC60" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD60" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE60" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF60" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG60" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH60" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI60" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ60" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK60" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL60" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="AB60" s="1"/>
+      <c r="AC60" s="1"/>
+      <c r="AD60" s="1"/>
+      <c r="AE60" s="1"/>
+      <c r="AF60" s="1"/>
+      <c r="AG60" s="1"/>
+      <c r="AH60" s="1"/>
+      <c r="AI60" s="1"/>
+      <c r="AJ60" s="1"/>
+      <c r="AK60" s="1"/>
+      <c r="AL60" s="1"/>
+      <c r="AM60" s="1"/>
+      <c r="AN60" s="1"/>
     </row>
-    <row r="61" spans="1:38">
+    <row r="61" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>141</v>
       </c>
@@ -7592,38 +7586,39 @@
       <c r="AJ61">
         <v>5</v>
       </c>
-      <c r="AK61">
-        <v>1</v>
-      </c>
-      <c r="AL61">
+      <c r="AM61">
+        <v>1</v>
+      </c>
+      <c r="AN61">
         <v>3.7</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AN61"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/raw-data-prep/raw_data/Post-Questionnaire_AM.xlsx
+++ b/raw-data-prep/raw_data/Post-Questionnaire_AM.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbhilga\GitHub\vg-dissertation\raw-data-prep\raw_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19155" windowHeight="12330"/>
   </bookViews>
@@ -165,7 +170,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -222,6 +227,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -269,7 +277,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -304,7 +312,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -515,9 +523,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AJ44" sqref="AJ44"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AJ43" sqref="AJ43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,13 +657,13 @@
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -664,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I2" t="s">
         <v>38</v>
@@ -679,19 +687,19 @@
         <v>7</v>
       </c>
       <c r="K2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -700,10 +708,10 @@
         <v>1</v>
       </c>
       <c r="R2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T2">
         <v>1</v>
@@ -715,37 +723,37 @@
         <v>1</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AA2">
         <v>4</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AD2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF2">
         <v>3</v>
       </c>
       <c r="AG2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH2" t="s">
         <v>39</v>
@@ -754,36 +762,36 @@
         <v>19</v>
       </c>
       <c r="AJ2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AM2">
         <v>2</v>
       </c>
       <c r="AN2">
-        <v>3</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H3" t="s">
         <v>38</v>
@@ -792,73 +800,73 @@
         <v>38</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M3">
         <v>6</v>
       </c>
       <c r="N3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="X3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Z3">
         <v>4</v>
       </c>
       <c r="AA3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AC3">
         <v>7</v>
       </c>
       <c r="AD3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG3">
         <v>3</v>
@@ -867,39 +875,39 @@
         <v>39</v>
       </c>
       <c r="AI3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AM3">
         <v>2</v>
       </c>
       <c r="AN3">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H4" t="s">
         <v>38</v>
@@ -911,19 +919,19 @@
         <v>7</v>
       </c>
       <c r="K4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N4">
         <v>1</v>
       </c>
       <c r="O4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P4">
         <v>1</v>
@@ -932,43 +940,43 @@
         <v>2</v>
       </c>
       <c r="R4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U4">
         <v>1</v>
       </c>
       <c r="V4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Y4">
         <v>1</v>
       </c>
       <c r="Z4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE4">
         <v>3</v>
@@ -985,119 +993,115 @@
       <c r="AI4">
         <v>18</v>
       </c>
-      <c r="AJ4" s="1">
-        <v>5</v>
-      </c>
-      <c r="AK4" s="1">
-        <v>2</v>
-      </c>
-      <c r="AL4" s="1"/>
+      <c r="AJ4">
+        <v>5</v>
+      </c>
       <c r="AM4">
         <v>1</v>
       </c>
       <c r="AN4">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s">
         <v>38</v>
       </c>
       <c r="J5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M5">
         <v>3</v>
       </c>
       <c r="N5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T5">
         <v>3</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W5">
         <v>2</v>
       </c>
       <c r="X5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC5">
         <v>7</v>
       </c>
       <c r="AD5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE5">
         <v>5</v>
       </c>
       <c r="AF5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AH5" t="s">
         <v>39</v>
@@ -1105,115 +1109,119 @@
       <c r="AI5">
         <v>18</v>
       </c>
-      <c r="AJ5">
-        <v>5</v>
+      <c r="AJ5" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="AM5">
         <v>1</v>
       </c>
       <c r="AN5">
-        <v>4</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P6">
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V6">
         <v>1</v>
       </c>
       <c r="W6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y6">
         <v>1</v>
       </c>
       <c r="Z6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AB6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AF6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AG6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH6" t="s">
         <v>39</v>
@@ -1233,141 +1241,141 @@
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P7">
         <v>2</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R7">
         <v>4</v>
       </c>
       <c r="S7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T7">
         <v>2</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V7">
         <v>2</v>
       </c>
       <c r="W7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Y7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AB7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AC7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AD7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AF7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AG7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AH7" t="s">
         <v>39</v>
       </c>
       <c r="AI7">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ7">
         <v>5</v>
       </c>
       <c r="AM7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN7">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H8" t="s">
         <v>38</v>
@@ -1376,121 +1384,117 @@
         <v>38</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O8">
         <v>4</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="T8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U8">
         <v>3</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Y8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AB8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AD8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH8" t="s">
         <v>39</v>
       </c>
       <c r="AI8">
-        <v>18</v>
-      </c>
-      <c r="AJ8" s="1">
-        <v>5</v>
-      </c>
-      <c r="AK8" s="1"/>
-      <c r="AL8" s="1" t="s">
-        <v>42</v>
+        <v>19</v>
+      </c>
+      <c r="AJ8">
+        <v>5</v>
       </c>
       <c r="AM8">
         <v>1</v>
       </c>
       <c r="AN8">
-        <v>3.69</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9">
         <v>4</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I9" t="s">
         <v>38</v>
@@ -1499,67 +1503,67 @@
         <v>6</v>
       </c>
       <c r="K9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N9">
         <v>2</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF9">
         <v>5</v>
@@ -1574,13 +1578,13 @@
         <v>19</v>
       </c>
       <c r="AJ9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM9">
         <v>2</v>
       </c>
       <c r="AN9">
-        <v>2.9</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
@@ -1701,16 +1705,16 @@
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1719,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H11" t="s">
         <v>38</v>
@@ -1728,76 +1732,76 @@
         <v>38</v>
       </c>
       <c r="J11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Y11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AA11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AB11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AC11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AG11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH11" t="s">
         <v>39</v>
@@ -1806,36 +1810,39 @@
         <v>18</v>
       </c>
       <c r="AJ11">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>43</v>
       </c>
       <c r="AM11">
         <v>1</v>
       </c>
       <c r="AN11">
-        <v>3.3</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H12" t="s">
         <v>38</v>
@@ -1847,111 +1854,111 @@
         <v>6</v>
       </c>
       <c r="K12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N12">
         <v>2</v>
       </c>
       <c r="O12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P12">
         <v>2</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Y12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z12">
         <v>1</v>
       </c>
       <c r="AA12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB12">
         <v>2</v>
       </c>
       <c r="AC12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD12">
         <v>5</v>
       </c>
       <c r="AE12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AG12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH12" t="s">
         <v>39</v>
       </c>
       <c r="AI12">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ12">
         <v>5</v>
       </c>
       <c r="AM12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN12">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H13" t="s">
         <v>38</v>
@@ -1960,73 +1967,73 @@
         <v>38</v>
       </c>
       <c r="J13">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="W13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X13">
         <v>5</v>
       </c>
       <c r="Y13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AD13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE13">
         <v>3</v>
       </c>
       <c r="AF13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG13">
         <v>3</v>
@@ -2035,117 +2042,117 @@
         <v>39</v>
       </c>
       <c r="AI13">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AJ13">
         <v>5</v>
       </c>
       <c r="AM13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN13">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L14">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T14">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="U14">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="V14">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="W14">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="X14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Y14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z14">
         <v>4</v>
       </c>
       <c r="AA14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AC14">
         <v>7</v>
       </c>
       <c r="AD14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AF14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AG14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AH14" t="s">
         <v>39</v>
@@ -2154,24 +2161,27 @@
         <v>19</v>
       </c>
       <c r="AJ14">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>45</v>
       </c>
       <c r="AM14">
         <v>2</v>
       </c>
       <c r="AN14">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -2180,85 +2190,85 @@
         <v>4</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I15" t="s">
         <v>38</v>
       </c>
       <c r="J15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T15">
         <v>1</v>
       </c>
       <c r="U15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="W15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AA15">
         <v>4</v>
       </c>
       <c r="AB15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG15">
         <v>4</v>
@@ -2267,30 +2277,33 @@
         <v>39</v>
       </c>
       <c r="AI15">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AJ15">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>44</v>
       </c>
       <c r="AM15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AN15">
-        <v>3.9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2299,85 +2312,85 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K16">
         <v>3</v>
       </c>
       <c r="L16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M16">
         <v>2</v>
       </c>
       <c r="N16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P16">
         <v>2</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S16">
         <v>3</v>
       </c>
       <c r="T16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z16">
         <v>3</v>
       </c>
       <c r="AA16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AC16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AD16">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AF16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AG16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AH16" t="s">
         <v>39</v>
@@ -2392,128 +2405,128 @@
         <v>1</v>
       </c>
       <c r="AN16">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17">
         <v>4</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H17" t="s">
         <v>40</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J17">
         <v>6</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M17">
         <v>3</v>
       </c>
       <c r="N17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S17">
         <v>6</v>
       </c>
       <c r="T17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W17">
         <v>2</v>
       </c>
       <c r="X17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z17">
         <v>2</v>
       </c>
       <c r="AA17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AC17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AG17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH17" t="s">
         <v>39</v>
       </c>
       <c r="AI17">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN17">
-        <v>3.91</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -2522,16 +2535,16 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H18" t="s">
         <v>38</v>
@@ -2540,76 +2553,76 @@
         <v>38</v>
       </c>
       <c r="J18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L18">
         <v>6</v>
       </c>
       <c r="M18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q18">
         <v>2</v>
       </c>
       <c r="R18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S18">
         <v>6</v>
       </c>
       <c r="T18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W18">
         <v>2</v>
       </c>
       <c r="X18">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Y18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA18">
         <v>6</v>
       </c>
       <c r="AB18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AC18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD18">
         <v>4</v>
       </c>
       <c r="AE18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AF18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AG18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AH18" t="s">
         <v>39</v>
@@ -2617,40 +2630,41 @@
       <c r="AI18">
         <v>18</v>
       </c>
-      <c r="AJ18">
-        <v>6</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>43</v>
-      </c>
+      <c r="AJ18" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK18" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL18" s="1"/>
       <c r="AM18">
         <v>1</v>
       </c>
       <c r="AN18">
-        <v>3.83</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="19" spans="1:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H19" t="s">
         <v>38</v>
@@ -2659,132 +2673,129 @@
         <v>38</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R19">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S19">
         <v>6</v>
       </c>
       <c r="T19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W19">
         <v>2</v>
       </c>
       <c r="X19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AA19">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AB19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC19">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AD19">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AF19">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AG19">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AH19" t="s">
         <v>39</v>
       </c>
       <c r="AI19">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AJ19">
-        <v>6</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="AM19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AN19">
-        <v>3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K20">
         <v>6</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -2793,7 +2804,7 @@
         <v>1</v>
       </c>
       <c r="O20">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P20">
         <v>1</v>
@@ -2802,52 +2813,52 @@
         <v>1</v>
       </c>
       <c r="R20">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V20">
         <v>1</v>
       </c>
       <c r="W20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X20">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Y20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Z20">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AA20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC20">
         <v>7</v>
       </c>
       <c r="AD20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AF20">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AG20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH20" t="s">
         <v>39</v>
@@ -2856,36 +2867,33 @@
         <v>19</v>
       </c>
       <c r="AJ20">
-        <v>6</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="AM20">
         <v>2</v>
       </c>
       <c r="AN20">
-        <v>3.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>6</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21">
         <v>3</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G21">
         <v>5</v>
@@ -2906,19 +2914,19 @@
         <v>7</v>
       </c>
       <c r="M21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R21">
         <v>6</v>
@@ -2927,16 +2935,16 @@
         <v>6</v>
       </c>
       <c r="T21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U21">
         <v>5</v>
       </c>
       <c r="V21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X21">
         <v>7</v>
@@ -2945,25 +2953,25 @@
         <v>2</v>
       </c>
       <c r="Z21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA21">
         <v>7</v>
       </c>
       <c r="AB21">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AC21">
         <v>7</v>
       </c>
       <c r="AD21">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG21">
         <v>7</v>
@@ -2972,102 +2980,102 @@
         <v>39</v>
       </c>
       <c r="AI21">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ21">
         <v>5</v>
       </c>
       <c r="AM21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN21">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22">
         <v>4</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G22">
         <v>5</v>
       </c>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I22" t="s">
         <v>38</v>
       </c>
       <c r="J22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K22">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y22">
         <v>2</v>
       </c>
       <c r="Z22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA22">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AB22">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AC22">
         <v>7</v>
@@ -3076,13 +3084,13 @@
         <v>5</v>
       </c>
       <c r="AE22">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF22">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AG22">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AH22" t="s">
         <v>39</v>
@@ -3097,7 +3105,7 @@
         <v>1</v>
       </c>
       <c r="AN22">
-        <v>3.7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.25">
@@ -3875,12 +3883,6 @@
       <c r="AA29">
         <v>5</v>
       </c>
-      <c r="AB29" s="1"/>
-      <c r="AC29" s="1"/>
-      <c r="AD29" s="1"/>
-      <c r="AE29" s="1"/>
-      <c r="AF29" s="1"/>
-      <c r="AG29" s="1"/>
       <c r="AH29" t="s">
         <v>39</v>
       </c>
@@ -3899,16 +3901,16 @@
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -3917,7 +3919,7 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H30" t="s">
         <v>38</v>
@@ -3941,7 +3943,7 @@
         <v>1</v>
       </c>
       <c r="O30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P30">
         <v>1</v>
@@ -3953,16 +3955,16 @@
         <v>4</v>
       </c>
       <c r="S30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U30">
         <v>1</v>
       </c>
       <c r="V30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W30">
         <v>2</v>
@@ -3971,37 +3973,37 @@
         <v>7</v>
       </c>
       <c r="Y30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AC30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE30">
         <v>5</v>
       </c>
       <c r="AF30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH30" t="s">
         <v>39</v>
       </c>
       <c r="AI30">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ30">
         <v>5</v>
@@ -4010,21 +4012,21 @@
         <v>1</v>
       </c>
       <c r="AN30">
-        <v>3.7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -4033,7 +4035,7 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H31" t="s">
         <v>38</v>
@@ -4042,61 +4044,61 @@
         <v>38</v>
       </c>
       <c r="J31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M31">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O31">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q31">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S31">
         <v>6</v>
       </c>
       <c r="T31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V31">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="W31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z31">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AA31">
         <v>5</v>
       </c>
       <c r="AB31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AC31">
         <v>6</v>
@@ -4105,33 +4107,33 @@
         <v>5</v>
       </c>
       <c r="AE31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG31">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AH31" t="s">
         <v>39</v>
       </c>
       <c r="AI31">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AJ31">
         <v>5</v>
       </c>
       <c r="AM31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AN31">
-        <v>4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>7</v>
@@ -4140,7 +4142,7 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -4158,91 +4160,91 @@
         <v>38</v>
       </c>
       <c r="J32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M32">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V32">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="W32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z32">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AA32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB32">
         <v>5</v>
       </c>
       <c r="AC32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AF32">
         <v>5</v>
       </c>
       <c r="AG32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH32" t="s">
         <v>39</v>
       </c>
       <c r="AI32">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AJ32">
         <v>5</v>
       </c>
       <c r="AM32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AN32">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.25">
@@ -4363,25 +4365,25 @@
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C34">
         <v>4</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H34" t="s">
         <v>38</v>
@@ -4393,16 +4395,16 @@
         <v>7</v>
       </c>
       <c r="K34">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L34">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O34">
         <v>6</v>
@@ -4411,52 +4413,52 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R34">
         <v>5</v>
       </c>
       <c r="S34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W34">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X34">
         <v>7</v>
       </c>
       <c r="Y34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z34">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA34">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AB34">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC34">
         <v>7</v>
       </c>
       <c r="AD34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF34">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AG34">
         <v>7</v>
@@ -4465,7 +4467,7 @@
         <v>39</v>
       </c>
       <c r="AI34">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ34">
         <v>5</v>
@@ -4474,30 +4476,30 @@
         <v>1</v>
       </c>
       <c r="AN34">
-        <v>3</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C35">
         <v>4</v>
       </c>
       <c r="D35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H35" t="s">
         <v>38</v>
@@ -4509,16 +4511,16 @@
         <v>7</v>
       </c>
       <c r="K35">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L35">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O35">
         <v>6</v>
@@ -4527,52 +4529,52 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R35">
         <v>5</v>
       </c>
       <c r="S35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W35">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X35">
         <v>7</v>
       </c>
       <c r="Y35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AA35">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AB35">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC35">
         <v>7</v>
       </c>
       <c r="AD35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE35">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AF35">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AG35">
         <v>7</v>
@@ -4581,7 +4583,7 @@
         <v>39</v>
       </c>
       <c r="AI35">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ35">
         <v>5</v>
@@ -4590,30 +4592,30 @@
         <v>1</v>
       </c>
       <c r="AN35">
-        <v>3.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H36" t="s">
         <v>38</v>
@@ -4625,111 +4627,111 @@
         <v>7</v>
       </c>
       <c r="K36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M36">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N36">
         <v>2</v>
       </c>
       <c r="O36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S36">
         <v>5</v>
       </c>
       <c r="T36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U36">
         <v>2</v>
       </c>
       <c r="V36">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="W36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB36">
         <v>2</v>
       </c>
       <c r="AC36">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD36">
         <v>6</v>
       </c>
       <c r="AE36">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AF36">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AG36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH36" t="s">
         <v>39</v>
       </c>
       <c r="AI36">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM36">
         <v>1</v>
       </c>
       <c r="AN36">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H37" t="s">
         <v>38</v>
@@ -4741,111 +4743,111 @@
         <v>7</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M37">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N37">
         <v>2</v>
       </c>
       <c r="O37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S37">
         <v>5</v>
       </c>
       <c r="T37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U37">
         <v>2</v>
       </c>
       <c r="V37">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="W37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB37">
         <v>2</v>
       </c>
       <c r="AC37">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD37">
         <v>6</v>
       </c>
       <c r="AE37">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AF37">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AG37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH37" t="s">
         <v>39</v>
       </c>
       <c r="AI37">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM37">
         <v>1</v>
       </c>
       <c r="AN37">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H38" t="s">
         <v>38</v>
@@ -4857,111 +4859,111 @@
         <v>7</v>
       </c>
       <c r="K38">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L38">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M38">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O38">
         <v>7</v>
       </c>
       <c r="P38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R38">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S38">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T38">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U38">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V38">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="W38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X38">
         <v>7</v>
       </c>
       <c r="Y38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA38">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB38">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AC38">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD38">
         <v>6</v>
       </c>
       <c r="AE38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF38">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AG38">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AH38" t="s">
         <v>39</v>
       </c>
       <c r="AI38">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ38">
         <v>5</v>
       </c>
       <c r="AM38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN38">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H39" t="s">
         <v>38</v>
@@ -4973,93 +4975,93 @@
         <v>7</v>
       </c>
       <c r="K39">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L39">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O39">
         <v>7</v>
       </c>
       <c r="P39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q39">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R39">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S39">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T39">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U39">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V39">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="W39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X39">
         <v>7</v>
       </c>
       <c r="Y39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA39">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AC39">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD39">
         <v>6</v>
       </c>
       <c r="AE39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF39">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AG39">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AH39" t="s">
         <v>39</v>
       </c>
       <c r="AI39">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ39">
         <v>5</v>
       </c>
       <c r="AM39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN39">
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>5</v>
@@ -5068,16 +5070,16 @@
         <v>2</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G40">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H40" t="s">
         <v>38</v>
@@ -5086,40 +5088,40 @@
         <v>38</v>
       </c>
       <c r="J40">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K40">
         <v>5</v>
       </c>
       <c r="L40">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M40">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N40">
         <v>4</v>
       </c>
       <c r="O40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q40">
         <v>5</v>
       </c>
       <c r="R40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T40">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U40">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V40">
         <v>5</v>
@@ -5128,54 +5130,54 @@
         <v>5</v>
       </c>
       <c r="X40">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Y40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z40">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA40">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC40">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AD40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE40">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AF40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AG40">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AH40" t="s">
         <v>39</v>
       </c>
       <c r="AI40">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ40">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AM40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN40">
-        <v>3.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>5</v>
@@ -5184,16 +5186,16 @@
         <v>2</v>
       </c>
       <c r="D41">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G41">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H41" t="s">
         <v>38</v>
@@ -5202,40 +5204,40 @@
         <v>38</v>
       </c>
       <c r="J41">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K41">
         <v>5</v>
       </c>
       <c r="L41">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M41">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N41">
         <v>4</v>
       </c>
       <c r="O41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q41">
         <v>5</v>
       </c>
       <c r="R41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T41">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U41">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V41">
         <v>5</v>
@@ -5244,49 +5246,49 @@
         <v>5</v>
       </c>
       <c r="X41">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Y41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z41">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA41">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AC41">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AD41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE41">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AF41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AG41">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AH41" t="s">
         <v>39</v>
       </c>
       <c r="AI41">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ41">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AM41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN41">
-        <v>3</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.25">
@@ -5527,16 +5529,16 @@
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B44">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -5545,7 +5547,7 @@
         <v>1</v>
       </c>
       <c r="G44">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H44" t="s">
         <v>38</v>
@@ -5557,43 +5559,43 @@
         <v>7</v>
       </c>
       <c r="K44">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L44">
         <v>7</v>
       </c>
       <c r="M44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N44">
         <v>1</v>
       </c>
       <c r="O44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P44">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R44">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U44">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X44">
         <v>7</v>
@@ -5605,63 +5607,63 @@
         <v>5</v>
       </c>
       <c r="AA44">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AB44">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AC44">
         <v>7</v>
       </c>
       <c r="AD44">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE44">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AF44">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AG44">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AH44" t="s">
         <v>39</v>
       </c>
       <c r="AI44">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ44">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AM44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN44">
-        <v>4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H45" t="s">
         <v>38</v>
@@ -5673,13 +5675,13 @@
         <v>7</v>
       </c>
       <c r="K45">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L45">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -5688,22 +5690,22 @@
         <v>4</v>
       </c>
       <c r="P45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q45">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R45">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S45">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U45">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V45">
         <v>2</v>
@@ -5712,66 +5714,66 @@
         <v>2</v>
       </c>
       <c r="X45">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y45">
         <v>1</v>
       </c>
       <c r="Z45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA45">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AB45">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AC45">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AD45">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE45">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AF45">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AG45">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AH45" t="s">
         <v>39</v>
       </c>
       <c r="AI45">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ45">
         <v>2</v>
       </c>
       <c r="AM45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN45">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="46" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B46">
         <v>4</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F46">
         <v>2</v>
@@ -5780,7 +5782,7 @@
         <v>4</v>
       </c>
       <c r="H46" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I46" t="s">
         <v>38</v>
@@ -5792,85 +5794,85 @@
         <v>6</v>
       </c>
       <c r="L46">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M46">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O46">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P46">
         <v>2</v>
       </c>
       <c r="Q46">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R46">
         <v>7</v>
       </c>
       <c r="S46">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T46">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V46">
         <v>2</v>
       </c>
       <c r="W46">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="X46">
         <v>6</v>
       </c>
       <c r="Y46">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z46">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AA46">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB46">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AC46">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AD46">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE46">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AF46">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AG46">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AH46" t="s">
         <v>39</v>
       </c>
       <c r="AI46">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AJ46">
         <v>2</v>
       </c>
       <c r="AM46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN46">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.25">
@@ -5991,138 +5993,138 @@
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D48">
         <v>5</v>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H48" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I48" t="s">
         <v>38</v>
       </c>
       <c r="J48">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K48">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L48">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N48">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O48">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P48">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R48">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S48">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U48">
         <v>5</v>
       </c>
       <c r="V48">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X48">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Y48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z48">
         <v>6</v>
       </c>
       <c r="AA48">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AB48">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AC48">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AD48">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AE48">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AF48">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AG48">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AH48" t="s">
         <v>39</v>
       </c>
       <c r="AI48">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ48">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AM48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN48">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="49" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D49">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G49">
         <v>5</v>
@@ -6134,76 +6136,76 @@
         <v>38</v>
       </c>
       <c r="J49">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L49">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M49">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P49">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R49">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U49">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V49">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W49">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X49">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Y49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z49">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AA49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB49">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AC49">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AD49">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE49">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AF49">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AG49">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AH49" t="s">
         <v>39</v>
@@ -6215,33 +6217,33 @@
         <v>5</v>
       </c>
       <c r="AM49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN49">
-        <v>3.6</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="50" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B50">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C50">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="F50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G50">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H50" t="s">
         <v>38</v>
@@ -6253,70 +6255,70 @@
         <v>7</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L50">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M50">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O50">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q50">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R50">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S50">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V50">
         <v>1</v>
       </c>
       <c r="W50">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X50">
         <v>7</v>
       </c>
       <c r="Y50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA50">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AB50">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC50">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD50">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE50">
         <v>7</v>
       </c>
       <c r="AF50">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AG50">
         <v>7</v>
@@ -6331,33 +6333,33 @@
         <v>5</v>
       </c>
       <c r="AM50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN50">
-        <v>2.2999999999999998</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B51">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G51">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H51" t="s">
         <v>38</v>
@@ -6369,58 +6371,58 @@
         <v>7</v>
       </c>
       <c r="K51">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L51">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O51">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P51">
         <v>2</v>
       </c>
       <c r="Q51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S51">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X51">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Y51">
         <v>2</v>
       </c>
       <c r="Z51">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA51">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AB51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AC51">
         <v>6</v>
@@ -6429,19 +6431,19 @@
         <v>6</v>
       </c>
       <c r="AE51">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG51">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AH51" t="s">
         <v>39</v>
       </c>
       <c r="AI51">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ51">
         <v>5</v>
@@ -6455,7 +6457,7 @@
     </row>
     <row r="52" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -6464,16 +6466,16 @@
         <v>4</v>
       </c>
       <c r="D52">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G52">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H52" t="s">
         <v>38</v>
@@ -6485,73 +6487,73 @@
         <v>7</v>
       </c>
       <c r="K52">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L52">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R52">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S52">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U52">
         <v>1</v>
       </c>
       <c r="V52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X52">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y52">
         <v>2</v>
       </c>
       <c r="Z52">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA52">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AB52">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AC52">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD52">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE52">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF52">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AG52">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AH52" t="s">
         <v>39</v>
@@ -6566,30 +6568,30 @@
         <v>1</v>
       </c>
       <c r="AN52">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="F53">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H53" t="s">
         <v>38</v>
@@ -6613,22 +6615,22 @@
         <v>1</v>
       </c>
       <c r="O53">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P53">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R53">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S53">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U53">
         <v>1</v>
@@ -6637,37 +6639,37 @@
         <v>1</v>
       </c>
       <c r="W53">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X53">
         <v>7</v>
       </c>
       <c r="Y53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z53">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA53">
         <v>7</v>
       </c>
       <c r="AB53">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AC53">
         <v>7</v>
       </c>
       <c r="AD53">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE53">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AF53">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AG53">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AH53" t="s">
         <v>39</v>
@@ -6919,22 +6921,22 @@
     </row>
     <row r="56" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B56">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56">
         <v>5</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G56">
         <v>5</v>
@@ -6946,70 +6948,70 @@
         <v>38</v>
       </c>
       <c r="J56">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K56">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L56">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O56">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R56">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S56">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U56">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V56">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W56">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X56">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Y56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z56">
         <v>2</v>
       </c>
       <c r="AA56">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AB56">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AC56">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD56">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE56">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AF56">
         <v>6</v>
@@ -7027,30 +7029,30 @@
         <v>5</v>
       </c>
       <c r="AM56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN56">
-        <v>3.97</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="57" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B57">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C57">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57">
         <v>5</v>
       </c>
       <c r="E57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G57">
         <v>5</v>
@@ -7062,70 +7064,70 @@
         <v>38</v>
       </c>
       <c r="J57">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K57">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L57">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R57">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S57">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U57">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W57">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X57">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z57">
         <v>2</v>
       </c>
       <c r="AA57">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AB57">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AC57">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD57">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE57">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AF57">
         <v>6</v>
@@ -7143,10 +7145,10 @@
         <v>5</v>
       </c>
       <c r="AM57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN57">
-        <v>2.2000000000000002</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="58" spans="1:40" x14ac:dyDescent="0.25">
@@ -7267,25 +7269,25 @@
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B59">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H59" t="s">
         <v>38</v>
@@ -7294,114 +7296,81 @@
         <v>38</v>
       </c>
       <c r="J59">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K59">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L59">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M59">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R59">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W59">
         <v>2</v>
       </c>
       <c r="X59">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Y59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z59">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AA59">
-        <v>2</v>
-      </c>
-      <c r="AB59">
-        <v>5</v>
-      </c>
-      <c r="AC59">
-        <v>6</v>
-      </c>
-      <c r="AD59">
-        <v>5</v>
-      </c>
-      <c r="AE59">
-        <v>3</v>
-      </c>
-      <c r="AF59">
-        <v>3</v>
-      </c>
-      <c r="AG59">
-        <v>5</v>
-      </c>
-      <c r="AH59" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI59">
-        <v>19</v>
-      </c>
-      <c r="AJ59">
-        <v>5</v>
-      </c>
-      <c r="AM59">
-        <v>2</v>
-      </c>
-      <c r="AN59">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B60">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G60">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H60" t="s">
         <v>38</v>
@@ -7410,72 +7379,92 @@
         <v>38</v>
       </c>
       <c r="J60">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K60">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L60">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M60">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q60">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R60">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S60">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U60">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W60">
         <v>2</v>
       </c>
       <c r="X60">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Y60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z60">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AA60">
-        <v>7</v>
-      </c>
-      <c r="AB60" s="1"/>
-      <c r="AC60" s="1"/>
-      <c r="AD60" s="1"/>
-      <c r="AE60" s="1"/>
-      <c r="AF60" s="1"/>
-      <c r="AG60" s="1"/>
-      <c r="AH60" s="1"/>
-      <c r="AI60" s="1"/>
-      <c r="AJ60" s="1"/>
-      <c r="AK60" s="1"/>
-      <c r="AL60" s="1"/>
-      <c r="AM60" s="1"/>
-      <c r="AN60" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="AB60">
+        <v>5</v>
+      </c>
+      <c r="AC60">
+        <v>6</v>
+      </c>
+      <c r="AD60">
+        <v>5</v>
+      </c>
+      <c r="AE60">
+        <v>3</v>
+      </c>
+      <c r="AF60">
+        <v>3</v>
+      </c>
+      <c r="AG60">
+        <v>5</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI60">
+        <v>19</v>
+      </c>
+      <c r="AJ60">
+        <v>5</v>
+      </c>
+      <c r="AM60">
+        <v>2</v>
+      </c>
+      <c r="AN60">
+        <v>3</v>
+      </c>
     </row>
     <row r="61" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A61">
@@ -7594,7 +7583,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN61"/>
+  <autoFilter ref="A1:AN61">
+    <sortState ref="A2:AN61">
+      <sortCondition ref="A1:A61"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
